--- a/Code/math_dev_dim10.xlsx
+++ b/Code/math_dev_dim10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
   <si>
     <t>DE</t>
   </si>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -70,11 +70,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -94,6 +96,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,56 +107,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2150.1336850868397</v>
+        <v>9.9287804460305954e-07</v>
       </c>
       <c r="B2">
-        <v>371.68210544050152</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>871.28846932493877</v>
+        <v>2.768248336988387e-19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2900.6136314393748</v>
+        <v>14.189732715352044</v>
       </c>
       <c r="B3">
-        <v>895.61072623550513</v>
+        <v>4.8249825257321588e-28</v>
       </c>
       <c r="C3">
-        <v>1013.5343634717893</v>
+        <v>3.1612995732366391e-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>27643067.752657723</v>
+        <v>1713920.8780467871</v>
       </c>
       <c r="B4">
-        <v>21750236.135842104</v>
+        <v>146107.16349660853</v>
       </c>
       <c r="C4">
-        <v>354903.74426223838</v>
+        <v>8.795165183111391e-16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>34.764003670992281</v>
+      </c>
+      <c r="B5">
+        <v>1.7829785039097022e-23</v>
+      </c>
+      <c r="C5">
+        <v>8.1638411583570163e-17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3.2055990213157469e-10</v>
+      </c>
+      <c r="B6">
+        <v>407.87050899431688</v>
+      </c>
+      <c r="C6">
+        <v>5.6001284904836215e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>29.097450562511614</v>
+      </c>
+      <c r="B7">
+        <v>58.41750988422811</v>
+      </c>
+      <c r="C7">
+        <v>61.720758426033626</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.073198914967309264</v>
+      </c>
+      <c r="B8">
+        <v>0.14147516241160438</v>
+      </c>
+      <c r="C8">
+        <v>0.07455388628766399</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.070642436062704275</v>
+      </c>
+      <c r="B9">
+        <v>0.07490314500254304</v>
+      </c>
+      <c r="C9">
+        <v>0.087854641652723373</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.011646763618533932</v>
+      </c>
+      <c r="B10">
+        <v>2.7019500335339326</v>
+      </c>
+      <c r="C10">
+        <v>4.998405843702856</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>5.0823109913039914</v>
+      </c>
+      <c r="B11">
+        <v>6.9961534884780292</v>
+      </c>
+      <c r="C11">
+        <v>4.1316296351928639</v>
       </c>
     </row>
   </sheetData>

--- a/Code/math_dev_dim10.xlsx
+++ b/Code/math_dev_dim10.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="3">
   <si>
     <t>DE</t>
   </si>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -72,11 +72,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -98,6 +100,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,130 +114,130 @@
   <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" customWidth="true"/>
+    <col min="2" max="2" width="3.7109375" customWidth="true"/>
+    <col min="3" max="3" width="8.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>9.9287804460305954e-07</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.768248336988387e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>14.189732715352044</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>4.8249825257321588e-28</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.1612995732366391e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1713920.8780467871</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>146107.16349660853</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.795165183111391e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>34.764003670992281</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1.7829785039097022e-23</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>8.1638411583570163e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>3.2055990213157469e-10</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>407.87050899431688</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.6001284904836215e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>29.097450562511614</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>58.41750988422811</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>61.720758426033626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.073198914967309264</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.14147516241160438</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07455388628766399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.070642436062704275</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.07490314500254304</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.087854641652723373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.011646763618533932</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>2.7019500335339326</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.998405843702856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>5.0823109913039914</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>6.9961534884780292</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.1316296351928639</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
